--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xayru\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\sayer-n8n\files\fakedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6909EB-100F-490B-B10C-C4195B05D47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D471FB61-CF29-4B14-BD00-D44190714770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4110" windowWidth="11130" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>meeting</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>32A19D011A4C41F09FE3A2FB</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>{"id": "6EEEAD2A50444D1897881582", "title": "Drive Leading-Edge Eyeballs", "duration": 211.79227, "speakers": [{"name": "Hannah Olson"}, {"name": "Melissa Parker"}], "audio_url": "https://garza.com//audio.mp3", "video_url": null, "dateString": "2025-04-07T17:20:53", "host_email": "sydneyparker@hotmail.com", "calendar_id": "7AFAC1C9F61B4F9994B9A64F93956015", "participants": ["H.Olson@gmail.com","M_Parker@yahoo.com","awalker@yahoo.com", "llawson@hopkins.biz", "trandavid@yahoo.com", "samueldavis@fisher.com", "richard38@villarreal.com", "murphycarla@gmail.com", "ssanchez@yahoo.com", "jroman@green.com", "robertconley@gmail.com"], "transcript_url": "https://brandt.info/", "organizer_email": "jmason@yahoo.com", "meeting_attendees": [{"name": null, "email": "H.Olson@gmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "M_Parker@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "salazarjulie@brown-harper.info", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "dgarcia@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "nicholasbender@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "deanna86@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "frances41@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "weaverrobert@gmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "sweeneylauren@page-guerrero.org", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "tina56@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}]}</t>
   </si>
   <si>
-    <t>{"id": "DDCD444CF2A04CA1BA108EE5", "title": "Unleash Efficient Convergence", "duration": 185.48661, "speakers": [{"name": "Eric Ponce"}, {"name": "Tiffany Hogan"}], "audio_url": "http://www.nelson-guerra.com//audio.mp3", "video_url": null, "dateString": "2025-04-26T03:21:33", "host_email": "brookegutierrez@yahoo.com", "calendar_id": "E4D15128947B4EC3B32C965E9805A371", "participants": ["E_Ponce@hayes.com", "TiffHogan@yahoo.com", "lyoung@hotmail.com", "melissa28@arellano-weaver.com", "donna62@davis.info", "jessica80@yahoo.com", "ipowell@williamson.com"], "transcript_url": "http://www.bryant.biz/", "organizer_email": "alexis81@gonzalez.com", "meeting_attendees": [{"name": null, "email": "E_Ponce@hayes.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "TiffHogan@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "lozanojessica@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "alandoyle@briggs-gibbs.info", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "willie99@johnson-todd.info", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "wrodriguez@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "michaelgibbs@woodard-mendez.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "qjones@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "melanie15@alvarez.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "dennis82@gmail.com", "location": null, "displayName": null, "phoneNumber": null}]}</t>
-  </si>
-  <si>
     <t>{"id": "3BD64A8B7E09489295063BB1", "title": "Harness Scalable Applications", "duration": 83.569147, "speakers": [{"name": "Sonya Jones"}, {"name": "Robert Anderson"}], "audio_url": "http://www.jenkins.net//audio.mp3", "video_url": null, "dateString": "2025-05-09T11:38:06", "host_email": "tracysmith@anderson.org", "calendar_id": "DC9874BB8531419F8059CB2C9A3E7F10", "participants": ["lopezwalter@yahoo.com", "ann42@gmail.com", "escobarlaura@hotmail.com", "youngjoseph@gmail.com", "williamgonzalez@miller.com", "lynchtammy@thompson.com", "fosteradrian@gmail.com", "s_jones@gmail.com", "r_anderson@yahoo.com"], "transcript_url": "https://www.guerra.net/", "organizer_email": "crystal51@yahoo.com", "meeting_attendees": [{"name": null, "email": "frankjames@moore.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "frankjames@moore.com", "location": null, "displayName": null, "phoneNumber": null},{"name": null, "email": "spencer44@arias.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "bmercer@gmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "zkelly@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "lbrown@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "chris70@garcia-tran.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "s_jones@gmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "r_anderson@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}]}</t>
   </si>
   <si>
@@ -323,6 +317,9 @@
   </si>
   <si>
     <t>{"id": "E6CECFEEDC50467F9C3DFFF2", "title": "Synthesize Dynamic Schemas", "duration": 230.444851, "speakers": [{"name": "Christopher Riggs"}, {"name": "Margaret Giles"}, {"name": "Kelly Harrell"}], "audio_url": "https://www.griffin.info//audio.mp3", "video_url": null, "dateString": "2025-05-30T01:14:03", "host_email": "nmoore@brandt-lopez.com", "calendar_id": "47EF1D9027FE4F70BCB2B2FCB0294429", "participants": ["frobinson@gmail.com", "millerteresa@hotmail.com", "fgreene@hotmail.com", "dawn80@yahoo.com", "ramirezmary@middleton-howard.info", "omartin@jackson.info", "billy83@hotmail.com", "c_riggs@hotmail.com", "m_giles@yahoo.com", "k_harrell@yahoo.com","frobinson@gmail.com", "millerteresa@hotmail.com", "fgreene@hotmail.com", "dawn80@yahoo.com", "ramirezmary@middleton-howard.info", "omartin@jackson.info", "billy83@hotmail.com"], "transcript_url": "https://www.taylor-thornton.info/", "organizer_email": "castroconnor@phillips.com", "meeting_attendees": [{"name": null, "email": "amykennedy@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "danielle49@munoz.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "fryjohn@adams-friedman.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "zbrown@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "kevindickerson@johnson.info", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "ellisbrent@gmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "mphillips@gmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "pricedustin@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "chenbrittany@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "thorntonwilliam@chandler.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "c_riggs@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "m_giles@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "k_harrell@yahoo.com", "location": null, "displayName": null, "phoneNumber": null},{"name": null, "email": "amykennedy@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "danielle49@munoz.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "fryjohn@adams-friedman.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "zbrown@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "kevindickerson@johnson.info", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "ellisbrent@gmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "mphillips@gmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "pricedustin@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "chenbrittany@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}]}</t>
+  </si>
+  <si>
+    <t>{"id": "DDCD444CF2A04CA1BA108EE5", "title": "Unleash Efficient Convergence", "duration": 185.48661, "speakers": [{"name": "Eric Ponce"}, {"name": "Tiffany Hogan"}], "audio_url": "http://www.nelson-guerra.com//audio.mp3", "video_url": null, "dateString": "2025-04-26T03:21:33", "host_email": "brookegutierrez@yahoo.com", "calendar_id": "E4D15128947B4EC3B32C965E9805A371", "participants": ["E_Ponce@hayes.com", "TiffHogan@yahoo.com", "lyoung@hotmail.com", "melissa28@arellano-weaver.com", "donna62@davis.info", "jessica80@yahoo.com", "ipowell@williamson.com"], "transcript_url": "http://www.bryant.biz/", "organizer_email": "alexis81@gonzalez.com", "meeting_attendees": [{"name": null, "email": "E_Ponce@hayes.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "TiffHogan@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "lozanojessica@hotmail.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "alandoyle@briggs-gibbs.info", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "willie99@johnson-todd.info", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "wrodriguez@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "michaelgibbs@woodard.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "qjones@yahoo.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "melanie15@alvarez.com", "location": null, "displayName": null, "phoneNumber": null}, {"name": null, "email": "dennis82@gmail.com", "location": null, "displayName": null, "phoneNumber": null}]}</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,9 +401,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -444,9 +441,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,26 +476,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,26 +511,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -727,12 +690,16 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -769,22 +736,22 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -795,22 +762,22 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -821,22 +788,22 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,22 +814,22 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -870,25 +837,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -896,25 +863,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -925,22 +892,22 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -951,22 +918,22 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -977,22 +944,22 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1000,25 +967,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1029,22 +996,22 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1055,22 +1022,22 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1081,22 +1048,22 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1107,22 +1074,22 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1133,22 +1100,22 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
